--- a/Output/Media/YL_growth_media.xlsx
+++ b/Output/Media/YL_growth_media.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9c5a228e4bc8237/Dokumente/GitHub/Modeling_iGEM/Output/Media/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_301981F7F613C836C261083CBD669587588298FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="15150" yWindow="2100" windowWidth="5385" windowHeight="5220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>This C-source is set to 1000</t>
   </si>
@@ -28,23 +34,149 @@
     <t>EX_glc_LPAREN_e_RPAREN_</t>
   </si>
   <si>
+    <t>EX_13BDglcn_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_4abut_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_adn_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_akg_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_ala_L_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_amet_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_asp_L_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_cit_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_cytd_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_ddca_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_etoh_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_fru_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_gal_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_gam6p_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_gln_L_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_glu_L_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_glyc_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_gsn_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_hdca_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_hdcea_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_ins_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_lac_L_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_leu_L_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_malt_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_man_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_melib_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_ocdca_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_ocdcea_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_ocdcya_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_orn_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_pap_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_pro_L_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_pyr_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_rib_D_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_sbt_D_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_ser_L_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_succ_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_thr_L_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
     <t>EX_tre_LPAREN_e_RPAREN_</t>
   </si>
   <si>
+    <t>EX_ttdca_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_tyr_L_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_uri_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_val_L_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_xtsn_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
     <t>EX_xyl_D_LPAREN_e_RPAREN_</t>
   </si>
   <si>
-    <t>EX_fru_LPAREN_e_RPAREN_</t>
-  </si>
-  <si>
-    <t>EX_glyc_LPAREN_e_RPAREN_</t>
+    <t>EX_xylt_LPAREN_e_RPAREN_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,15 +209,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -127,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -159,9 +299,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,6 +351,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -368,14 +544,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -383,52 +561,388 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5.671478412722036</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>5.6714784127220357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.889266264169759</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1.8892662641697591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4.238987381981012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>1.889266264169764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.432296101844472</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>1.06229476002293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1.925131371601275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>1.6804688817654669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.2963001637103145</v>
+        <v>0.42504409529262971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.52510658581333125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1.694975276996838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1.6426393391103491E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>4.8022881999648812E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.82153110554794495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>3.150340778497505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.13466701083426821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1.9251313716012799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1.925131371601255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1.662911244031769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0.69596471638164592</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0.63835652746957328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0.29630016371031781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1.646668045033499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>5.5088074977811354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>5.1814372050805382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>1.7130463382259811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0.42410348816370708</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>1.9511766368328609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>4.2386434653818856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>1.925131371601188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>4.2386434653820828</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>6.0997422393736844</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>6.0820256235440926</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>5.9388194662855112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>1.3832400585660249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>9.6674075594313749E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>1.382841419094365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>0.32631619552740471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>1.5162691468820459</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>2.0506592476115668</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>0.33074927243041707</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>0.15382455241425949</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>0.69187013578318746</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>4.2389873819811994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>4.6722733688977502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>2.0979028251350682</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>0.85089411755900946</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>1.400693401991292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>1.6752957495420291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>1.432296101844474</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>1.6400477631074191</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Media/YL_growth_media.xlsx
+++ b/Output/Media/YL_growth_media.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9c5a228e4bc8237/Dokumente/GitHub/Modeling_iGEM/Output/Media/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_301981F7F613C836C261083CBD669587588298FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15150" yWindow="2100" windowWidth="5385" windowHeight="5220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>This C-source is set to 1000</t>
   </si>
@@ -28,9 +22,6 @@
     <t>objective value</t>
   </si>
   <si>
-    <t>EX_Fat_LPAREN_e_RPAREN_</t>
-  </si>
-  <si>
     <t>EX_glc_LPAREN_e_RPAREN_</t>
   </si>
   <si>
@@ -40,6 +31,9 @@
     <t>EX_4abut_LPAREN_e_RPAREN_</t>
   </si>
   <si>
+    <t>EX_ac_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
     <t>EX_adn_LPAREN_e_RPAREN_</t>
   </si>
   <si>
@@ -52,6 +46,9 @@
     <t>EX_amet_LPAREN_e_RPAREN_</t>
   </si>
   <si>
+    <t>EX_arg_L_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
     <t>EX_asp_L_LPAREN_e_RPAREN_</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
     <t>EX_fru_LPAREN_e_RPAREN_</t>
   </si>
   <si>
+    <t>EX_fum_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
     <t>EX_gal_LPAREN_e_RPAREN_</t>
   </si>
   <si>
@@ -82,6 +82,9 @@
     <t>EX_glu_L_LPAREN_e_RPAREN_</t>
   </si>
   <si>
+    <t>EX_gly_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
     <t>EX_glyc_LPAREN_e_RPAREN_</t>
   </si>
   <si>
@@ -101,6 +104,9 @@
   </si>
   <si>
     <t>EX_leu_L_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_mal_L_LPAREN_e_RPAREN_</t>
   </si>
   <si>
     <t>EX_malt_LPAREN_e_RPAREN_</t>
@@ -175,8 +181,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,23 +215,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -267,7 +265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,27 +297,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,24 +331,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -544,16 +506,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,388 +521,420 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5.6714784127220357</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.496826347305391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.8892662641697591</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.49682634730539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1.889266264169764</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.018797327394208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.06229476002293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.337299578059071</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1.6804688817654669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.309700598802394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.42504409529262971</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.6059502046123841</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.52510658581333125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.6873692077727954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.694975276996838</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.309700598802388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1.6426393391103491E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.4830498980005017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>4.8022881999648812E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.4178322275978282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.82153110554794495</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.392459587311766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>3.150340778497505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8007185628742485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.13466701083426821</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.783831180811809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1.9251313716012799</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.5170114942528736</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1.925131371601255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.51179640718563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1.662911244031769</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.3560553642926289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.69596471638164592</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.511796407185628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.63835652746957328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.346170856864242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.29630016371031781</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8022857069123064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.646668045033499</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.7474173095034498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>5.5088074977811354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.2931240657698049</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>5.1814372050805382</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.5226455946696519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1.7130463382259811</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.302215568861944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.42410348816370708</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.61300268817207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1.9511766368328609</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.617656810035846</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>4.2386434653818856</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.324670658682632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1.925131371601188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.5958146487294484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29">
-        <v>4.2386434653820828</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.818781362007166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30">
-        <v>6.0997422393736844</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.3560553642926289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31">
-        <v>6.0820256235440926</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.038742514970069</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32">
-        <v>5.9388194662855112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.511796407185632</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1.3832400585660249</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.038742514970071</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34">
-        <v>9.6674075594313749E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7.526981182795711</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1.382841419094365</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7.526981182795716</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.32631619552740471</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7.526981182795801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1.5162691468820459</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.119020044543427</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38">
-        <v>2.0506592476115668</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.4184905449548204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.33074927243041707</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.11902004454343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.15382455241425949</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.5397608370702491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.69187013578318746</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.257305389221556</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42">
-        <v>4.2389873819811994</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.564191616766464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43">
-        <v>4.6722733688977502</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.539760837070253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44">
-        <v>2.0979028251350682</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.4521465513871795</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.85089411755900946</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.7769288389513106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1.400693401991292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.038742514970062</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47">
-        <v>1.6752957495420291</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.699024193548408</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48">
-        <v>1.432296101844474</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.771213918544876</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49">
-        <v>1.6400477631074191</v>
+        <v>0.8156886227544936</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>1.36179211469535</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>1.317185628742515</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>1.182455089820358</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>1.309700598802396</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Media/YL_growth_media.xlsx
+++ b/Output/Media/YL_growth_media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>This C-source is set to 1000</t>
   </si>
@@ -52,6 +52,9 @@
     <t>EX_asp_L_LPAREN_e_RPAREN_</t>
   </si>
   <si>
+    <t>EX_buca_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
     <t>EX_cit_LPAREN_e_RPAREN_</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
   </si>
   <si>
     <t>EX_sbt_D_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_sbt_L_LPAREN_e_RPAREN_</t>
   </si>
   <si>
     <t>EX_ser_L_LPAREN_e_RPAREN_</t>
@@ -507,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.496826347305391</v>
+        <v>2.198577498976983</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -534,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.49682634730539</v>
+        <v>2.19857749897698</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -542,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1.018797327394208</v>
+        <v>1.424182153546658</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -550,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.337299578059071</v>
+        <v>0.4241197913663184</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -558,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1.309700598802394</v>
+        <v>2.014258243596449</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -566,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.6059502046123841</v>
+        <v>1.100027839619435</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -574,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.6873692077727954</v>
+        <v>0.9184812679854828</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -582,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.309700598802388</v>
+        <v>2.030899244311667</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -590,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.4830498980005017</v>
+        <v>0.9766409351357718</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -598,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.4178322275978282</v>
+        <v>0.7429322654068391</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -606,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.392459587311766</v>
+        <v>1.128264878848437</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -614,7 +620,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.8007185628742485</v>
+        <v>0.7637961447263132</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -622,7 +628,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>4.783831180811809</v>
+        <v>1.25077930065431</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -630,7 +636,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.5170114942528736</v>
+        <v>4.357176688927785</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -638,7 +644,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1.51179640718563</v>
+        <v>0.6797941156633819</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -646,7 +652,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.3560553642926289</v>
+        <v>2.231694590905872</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -654,7 +660,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1.511796407185628</v>
+        <v>0.7272800059361271</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -662,7 +668,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1.346170856864242</v>
+        <v>2.231694590905825</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -670,7 +676,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.8022857069123064</v>
+        <v>2.196604514048516</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -678,7 +684,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.7474173095034498</v>
+        <v>1.313128364895492</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -686,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.2931240657698049</v>
+        <v>1.300435557166579</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -694,7 +700,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.5226455946696519</v>
+        <v>0.4220247777650446</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -702,7 +708,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1.302215568861944</v>
+        <v>1.000051731307761</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -710,7 +716,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>6.61300268817207</v>
+        <v>1.979479033642607</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -718,7 +724,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>6.617656810035846</v>
+        <v>6.012613712087314</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -726,7 +732,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1.324670658682632</v>
+        <v>5.711930195173854</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -734,7 +740,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.5958146487294484</v>
+        <v>2.046030021155727</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -742,7 +748,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1.818781362007166</v>
+        <v>0.8496778678429112</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -750,7 +756,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.3560553642926289</v>
+        <v>2.21803098874309</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -758,7 +764,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>3.038742514970069</v>
+        <v>0.727280005936113</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -766,7 +772,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1.511796407185632</v>
+        <v>4.496903678843818</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -774,7 +780,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>3.038742514970071</v>
+        <v>2.231694590905911</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -782,7 +788,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>7.526981182795711</v>
+        <v>4.496903678843854</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -790,7 +796,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>7.526981182795716</v>
+        <v>6.47086536133091</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -798,7 +804,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>7.526981182795801</v>
+        <v>6.451840238226291</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -806,7 +812,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1.119020044543427</v>
+        <v>6.301160552682171</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -814,7 +820,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.4184905449548204</v>
+        <v>1.819684558625691</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -822,7 +828,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1.11902004454343</v>
+        <v>0.902603590199482</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -830,7 +836,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.5397608370702491</v>
+        <v>1.819169106424605</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -838,7 +844,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1.257305389221556</v>
+        <v>0.7563381519880671</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -846,7 +852,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1.564191616766464</v>
+        <v>1.854159742916221</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -854,7 +860,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.539760837070253</v>
+        <v>2.347604412657109</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -862,7 +868,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.4521465513871795</v>
+        <v>2.811267662015156E-17</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -870,7 +876,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.7769288389513106</v>
+        <v>0.7632058808242875</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -878,7 +884,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>3.038742514970062</v>
+        <v>0.8707789567377615</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -886,7 +892,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>5.699024193548408</v>
+        <v>1.091483294251077</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -894,7 +900,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>1.771213918544876</v>
+        <v>4.497269526433772</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -902,7 +908,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.8156886227544936</v>
+        <v>5.206374707879621</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -910,7 +916,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1.36179211469535</v>
+        <v>2.399568654972881</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -918,7 +924,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>1.317185628742515</v>
+        <v>1.281746870667581</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -926,7 +932,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>1.182455089820358</v>
+        <v>1.70621754410193</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -934,7 +940,23 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>1.309700598802396</v>
+        <v>2.00651095818617</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>1.781302140672622</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>1.970069564667432</v>
       </c>
     </row>
   </sheetData>
